--- a/matlab/Data_Import/WW_Conversion.xlsx
+++ b/matlab/Data_Import/WW_Conversion.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github 2018\Hawkesbury\matlab\Data_Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\matlab\Data_Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0032C3F-A1CD-448D-8B5B-545F842FA796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850"/>
+    <workbookView xWindow="28680" yWindow="-4200" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Wet Weather Conversions</t>
   </si>
@@ -227,16 +228,34 @@
     <t>WQ_NIT_NIT</t>
   </si>
   <si>
-    <t>WQ_NIT_NITRATE</t>
-  </si>
-  <si>
     <t>WQ_SIL_RSI</t>
+  </si>
+  <si>
+    <t>WQ_NIT_AMM_GREY</t>
+  </si>
+  <si>
+    <t>WQ_NIT_NIT_GREY</t>
+  </si>
+  <si>
+    <t>WQ_NIT_NITRITE</t>
+  </si>
+  <si>
+    <t>WQ_NIT_NITRITE_GREY</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_TOT_TSS</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_PHY_TCHLA</t>
+  </si>
+  <si>
+    <t>Ignore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -648,17 +667,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -749,7 +768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="39">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -766,39 +785,48 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="26">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="26">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -816,53 +844,83 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5"/>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="43">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="43">
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/Data_Import/WW_Conversion.xlsx
+++ b/matlab/Data_Import/WW_Conversion.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\matlab\Data_Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0032C3F-A1CD-448D-8B5B-545F842FA796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C734E8F-B39C-4EAB-838D-43F70A644DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4200" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>Wet Weather Conversions</t>
   </si>
@@ -96,96 +104,6 @@
     <t>Chlorophyll - a</t>
   </si>
   <si>
-    <t>N analysis</t>
-  </si>
-  <si>
-    <t>C analysis</t>
-  </si>
-  <si>
-    <t>Visual Pollution</t>
-  </si>
-  <si>
-    <t>General Comments</t>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>N (mg/L d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>N)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>O (mg/L d</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>O)</t>
-    </r>
-  </si>
-  <si>
     <t>Original Name</t>
   </si>
   <si>
@@ -201,9 +119,6 @@
     <t>WQ_CAR_PH</t>
   </si>
   <si>
-    <t>WQ_OXY_SAT</t>
-  </si>
-  <si>
     <t>WQ_OXY_OXY</t>
   </si>
   <si>
@@ -250,6 +165,9 @@
   </si>
   <si>
     <t>Ignore</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_OXY_SAT</t>
   </si>
 </sst>
 </file>
@@ -259,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,15 +190,10 @@
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Roboto"/>
     </font>
@@ -668,260 +581,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <f>1000/32</f>
+        <v>31.25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <f>1000/31</f>
+        <v>32.258064516129032</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <f>1000/31</f>
+        <v>32.258064516129032</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C19" si="0">1000/14</f>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <f>1000/28.1</f>
+        <v>35.587188612099645</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="5"/>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="5"/>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/matlab/Data_Import/WW_Conversion.xlsx
+++ b/matlab/Data_Import/WW_Conversion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\matlab\Data_Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C734E8F-B39C-4EAB-838D-43F70A644DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C068D68-639D-4EB6-A223-458DD974D0FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>Factor</t>
   </si>
   <si>
-    <t>Cond</t>
-  </si>
-  <si>
     <t>WQ_CAR_PH</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>WQ_DIAG_OXY_SAT</t>
+  </si>
+  <si>
+    <t>COND</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <f>1000/32</f>
@@ -658,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <f>1000/31</f>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <f>1000/31</f>
@@ -730,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:C19" si="0">1000/14</f>
@@ -773,7 +773,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -788,7 +788,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -803,7 +803,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -818,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -833,7 +833,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -848,7 +848,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -863,7 +863,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -877,7 +877,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <f>1000/28.1</f>
@@ -906,7 +906,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>1</v>
